--- a/Documents/Insper/2° Semestre/Ciência de Dados/Projeto 1/exports_percent_of_gdp.xlsx
+++ b/Documents/Insper/2° Semestre/Ciência de Dados/Projeto 1/exports_percent_of_gdp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Documents\Insper\2° Semestre\Ciência de Dados\Projeto 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19557BB3-37A0-4657-AC55-CAE3D7425C95}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9193222-15FB-407A-A540-E57AF8479246}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>Canada</t>
-  </si>
-  <si>
-    <t>Congo, Dem. Rep.</t>
   </si>
   <si>
     <t>Lesotho</t>
@@ -65,21 +62,32 @@
     <t>Tanzania</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t>Zambia</t>
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Congo Rep</t>
+  </si>
+  <si>
+    <t>EUA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -119,12 +127,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,194 +476,194 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="exports_percent_of_gdp"/>
-  <dimension ref="A1:BG186"/>
+  <dimension ref="A1:BK178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:BG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="7">
         <v>1960</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="7">
         <v>1961</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="7">
         <v>1962</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="7">
         <v>1963</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="7">
         <v>1964</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="7">
         <v>1965</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="7">
         <v>1966</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="7">
         <v>1967</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="7">
         <v>1968</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="7">
         <v>1969</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="7">
         <v>1970</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="7">
         <v>1971</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="7">
         <v>1972</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="7">
         <v>1973</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="7">
         <v>1974</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="7">
         <v>1975</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="7">
         <v>1976</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="7">
         <v>1977</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="7">
         <v>1978</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="7">
         <v>1979</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="7">
         <v>1980</v>
       </c>
-      <c r="W1">
+      <c r="W1" s="7">
         <v>1981</v>
       </c>
-      <c r="X1">
+      <c r="X1" s="7">
         <v>1982</v>
       </c>
-      <c r="Y1">
+      <c r="Y1" s="7">
         <v>1983</v>
       </c>
-      <c r="Z1">
+      <c r="Z1" s="7">
         <v>1984</v>
       </c>
-      <c r="AA1">
+      <c r="AA1" s="7">
         <v>1985</v>
       </c>
-      <c r="AB1">
+      <c r="AB1" s="7">
         <v>1986</v>
       </c>
-      <c r="AC1">
+      <c r="AC1" s="7">
         <v>1987</v>
       </c>
-      <c r="AD1">
+      <c r="AD1" s="7">
         <v>1988</v>
       </c>
-      <c r="AE1">
+      <c r="AE1" s="7">
         <v>1989</v>
       </c>
-      <c r="AF1">
+      <c r="AF1" s="7">
         <v>1990</v>
       </c>
-      <c r="AG1">
+      <c r="AG1" s="7">
         <v>1991</v>
       </c>
-      <c r="AH1">
+      <c r="AH1" s="7">
         <v>1992</v>
       </c>
-      <c r="AI1">
+      <c r="AI1" s="7">
         <v>1993</v>
       </c>
-      <c r="AJ1">
+      <c r="AJ1" s="7">
         <v>1994</v>
       </c>
-      <c r="AK1">
+      <c r="AK1" s="7">
         <v>1995</v>
       </c>
-      <c r="AL1">
+      <c r="AL1" s="7">
         <v>1996</v>
       </c>
-      <c r="AM1">
+      <c r="AM1" s="7">
         <v>1997</v>
       </c>
-      <c r="AN1">
+      <c r="AN1" s="7">
         <v>1998</v>
       </c>
-      <c r="AO1">
+      <c r="AO1" s="7">
         <v>1999</v>
       </c>
-      <c r="AP1">
+      <c r="AP1" s="7">
         <v>2000</v>
       </c>
-      <c r="AQ1">
+      <c r="AQ1" s="7">
         <v>2001</v>
       </c>
-      <c r="AR1">
+      <c r="AR1" s="7">
         <v>2002</v>
       </c>
-      <c r="AS1">
+      <c r="AS1" s="7">
         <v>2003</v>
       </c>
-      <c r="AT1">
+      <c r="AT1" s="7">
         <v>2004</v>
       </c>
-      <c r="AU1">
+      <c r="AU1" s="7">
         <v>2005</v>
       </c>
-      <c r="AV1">
+      <c r="AV1" s="7">
         <v>2006</v>
       </c>
-      <c r="AW1">
+      <c r="AW1" s="7">
         <v>2007</v>
       </c>
-      <c r="AX1">
+      <c r="AX1" s="7">
         <v>2008</v>
       </c>
-      <c r="AY1">
+      <c r="AY1" s="7">
         <v>2009</v>
       </c>
-      <c r="AZ1">
+      <c r="AZ1" s="7">
         <v>2010</v>
       </c>
-      <c r="BA1">
+      <c r="BA1" s="7">
         <v>2011</v>
       </c>
-      <c r="BB1">
+      <c r="BB1" s="7">
         <v>2012</v>
       </c>
-      <c r="BC1">
+      <c r="BC1" s="7">
         <v>2013</v>
       </c>
-      <c r="BD1">
+      <c r="BD1" s="7">
         <v>2014</v>
       </c>
-      <c r="BE1">
+      <c r="BE1" s="7">
         <v>2015</v>
       </c>
-      <c r="BF1">
+      <c r="BF1" s="7">
         <v>2016</v>
       </c>
-      <c r="BG1">
+      <c r="BG1" s="7">
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -768,8 +779,9 @@
       <c r="BG2" s="1">
         <v>29.9</v>
       </c>
+      <c r="BH2" s="3"/>
     </row>
-    <row r="3" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -944,10 +956,11 @@
       <c r="BF3" s="1">
         <v>55.1</v>
       </c>
+      <c r="BH3" s="3"/>
     </row>
-    <row r="4" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>18.899999999999999</v>
@@ -1123,10 +1136,14 @@
       <c r="BG4" s="1">
         <v>35.6</v>
       </c>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="5"/>
     </row>
-    <row r="5" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>11.7</v>
@@ -1249,10 +1266,14 @@
       <c r="BF5" s="1">
         <v>42.2</v>
       </c>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="5"/>
+      <c r="BJ5" s="5"/>
+      <c r="BK5" s="5"/>
     </row>
-    <row r="6" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>22.1</v>
@@ -1428,10 +1449,14 @@
       <c r="BG6" s="1">
         <v>29.2</v>
       </c>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="5"/>
+      <c r="BJ6" s="5"/>
+      <c r="BK6" s="5"/>
     </row>
-    <row r="7" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1575,10 +1600,14 @@
       <c r="BG7" s="1">
         <v>42.1</v>
       </c>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3"/>
+      <c r="BK7" s="3"/>
     </row>
-    <row r="8" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1714,10 +1743,11 @@
       <c r="BG8" s="1">
         <v>38.299999999999997</v>
       </c>
+      <c r="BH8" s="3"/>
     </row>
-    <row r="9" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1853,10 +1883,11 @@
       <c r="BG9" s="1">
         <v>36.700000000000003</v>
       </c>
+      <c r="BH9" s="3"/>
     </row>
-    <row r="10" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>48.3</v>
@@ -2029,10 +2060,11 @@
       <c r="BF10" s="1">
         <v>49.5</v>
       </c>
+      <c r="BH10" s="3"/>
     </row>
-    <row r="11" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2145,10 +2177,11 @@
       <c r="BF11" s="1">
         <v>19.600000000000001</v>
       </c>
+      <c r="BH11" s="3"/>
     </row>
-    <row r="12" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2256,10 +2289,11 @@
       <c r="BG12" s="1">
         <v>35.200000000000003</v>
       </c>
+      <c r="BH12" s="3"/>
     </row>
-    <row r="13" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2405,10 +2439,11 @@
       <c r="BG13" s="1">
         <v>24.1</v>
       </c>
+      <c r="BH13" s="3"/>
     </row>
-    <row r="14" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1">
         <v>29.6</v>
@@ -2584,8 +2619,9 @@
       <c r="BG14" s="1">
         <v>29.8</v>
       </c>
+      <c r="BH14" s="3"/>
     </row>
-    <row r="15" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -2763,10 +2799,11 @@
       <c r="BG15" s="2">
         <v>30.9</v>
       </c>
+      <c r="BH15" s="3"/>
     </row>
-    <row r="16" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2">
         <v>8.51</v>
@@ -2942,10 +2979,11 @@
       <c r="BG16" s="2">
         <v>37.9</v>
       </c>
+      <c r="BH16" s="3"/>
     </row>
-    <row r="17" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>4.97</v>
@@ -3119,176 +3157,15 @@
         <v>11.9</v>
       </c>
       <c r="BG17" s="4"/>
+      <c r="BH17" s="3"/>
     </row>
-    <row r="18" spans="1:59" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:59" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:59" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:59" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:59" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:59" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:59" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:59" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:59" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:59" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:59" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:59" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:59" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:59" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:59" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="109" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="152" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="178" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="AM20" s="6"/>
+    </row>
+    <row r="31" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="152" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="178" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
